--- a/Output/Data/CD_VientoDir_EstaciónSanFernando.xlsx
+++ b/Output/Data/CD_VientoDir_EstaciónSanFernando.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="VientoDir" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="VientoDir1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="VientoDir2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2440,4 +2442,4050 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Y26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>nombre_viento</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.3947108742845866</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5136309758988542</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.454007106198184</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5339133873838244</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.4736530491415039</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.6908803789972365</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.6506309148264984</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.6515301085883515</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.9076558800315706</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.928303377444203</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.7895775759968416</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.066982809721399</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.8675078864353313</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.105408606395578</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.06508875739645</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.6711409395973155</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.8489634748272458</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.6904714933912014</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.7106198183971575</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.5923000987166831</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.4552652414885194</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.3362341772151899</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.3946329913180742</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.4340962904498816</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.223603710282218</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.165547214539708</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.263324121594947</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.680838441763892</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.736727846852181</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.717331227793131</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.873028391167192</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.934846989141165</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.150749802683504</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.567647639739285</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.901697591788393</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3.220707370084964</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.898264984227129</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2.191077773391236</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.031558185404339</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.835767864192657</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.638696939782823</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.519037285460643</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.184366363995263</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.125370187561698</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.068883610451306</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1.028481012658228</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1.243093922651934</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1.045777426992897</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.144661535425301</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.007506914263137</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.480457954994078</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.740162151473206</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.598579040852576</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.210817212791157</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.168769716088328</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.290227048371175</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.012628255722178</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.626901046810191</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.178049743387288</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2.963841138114997</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.48422712933754</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.973943939992104</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.55818540433925</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.440979076194236</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.500493583415597</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.006115604655751</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.927753651796289</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.026653504442251</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.9105304829770388</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.9493670886075949</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.7300710339384373</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1.104972375690608</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.203868166567989</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.758198340576847</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.717331227793131</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.918133280601147</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.210380895993685</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.033162258191867</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.48422712933754</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.8035538005923</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.058405682715075</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.903416946474422</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.276746940386893</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2.548903378778897</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.385646687697161</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.421239636794315</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.676528599605523</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.243584682195026</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.006910167818361</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.9863878477017163</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.8093170153967627</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.8292201382033564</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.009501187648456</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.166930379746835</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.9076558800315706</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1.262825572217837</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.420959147424512</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.560647965231134</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.191077773391236</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.175202689341507</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.34852970199329</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3.059613106987761</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.194006309148265</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.941757156959526</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.492501973164956</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.863914675093818</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.763521515988946</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2.430349733254297</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.715299684542587</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.440979076194236</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.124260355029586</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.065929727595736</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.947680157946693</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.025843361609785</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.065929727595736</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.947680157946693</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.02929532858274</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.325158227848101</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1.164167324388319</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1.539068666140489</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.401223603710282</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.777953378111419</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.388472167390446</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.432272098081867</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.861653838563253</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.546387682589815</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.523659305993691</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.237907206317868</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.176795580110497</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.160181710448351</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.329253849190683</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.798063623789765</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.182965299684543</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.9869719699960521</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.9270216962524654</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.8882747729964469</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.7305034550839091</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.6115604655750642</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.6514015001973944</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.769990128331688</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.247030878859857</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.443829113924051</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1.499605367008682</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1.322020520915548</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.993289915137162</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.679178190438562</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.934465061192262</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2.313624678663239</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.309058614564831</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.684563758389262</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.661671924290221</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.685093780848963</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.295185477505919</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.765158996642307</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.09238057639163</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.462161628136732</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.123817034700315</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.9672325305961311</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.5719921104536489</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.5724437425977102</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.3948667324777888</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.5326494377589268</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.5329648637978681</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.7305034550839091</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.405384006334125</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.285601265822785</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1.637726913970008</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1.578531965272297</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.835405565423327</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.758198340576847</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.816028424792736</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.135653549535298</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2.269587527136373</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.388472167390446</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.602523659305993</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.843040473840079</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.584846093133386</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.607149911119889</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.934465061192262</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.146018573404465</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.143533123028391</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.7106198183971575</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.8086785009861933</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.6908803789972365</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.5725567620927937</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.3945551390806865</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.8685353335965259</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.7107601184600197</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.207442596991291</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.700949367088608</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1.440410418310971</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1.499605367008682</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2.506414051707125</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.311339391544844</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2.013422818791947</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.412497528178762</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2.328794158279061</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.980655349388077</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.450315457413249</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.277393879565647</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.255722178374112</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.69346237408651</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.355704697986577</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2.667457024303497</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.478706624605678</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.362021318594552</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.7297830374753451</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.7106198183971575</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.769990128331688</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.9863878477017163</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.8093170153967627</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.145113524185587</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.761678543151227</v>
+      </c>
+      <c r="W10" t="n">
+        <v>2.096518987341772</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1.894238358326756</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>2.407261247040252</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B11" t="n">
+        <v>7.894217485691731</v>
+      </c>
+      <c r="C11" t="n">
+        <v>7.981035163966811</v>
+      </c>
+      <c r="D11" t="n">
+        <v>8.251085669166995</v>
+      </c>
+      <c r="E11" t="n">
+        <v>7.969151670951157</v>
+      </c>
+      <c r="F11" t="n">
+        <v>7.795539767120585</v>
+      </c>
+      <c r="G11" t="n">
+        <v>8.843268851164627</v>
+      </c>
+      <c r="H11" t="n">
+        <v>10.21293375394322</v>
+      </c>
+      <c r="I11" t="n">
+        <v>11.45113524185587</v>
+      </c>
+      <c r="J11" t="n">
+        <v>11.08918705603788</v>
+      </c>
+      <c r="K11" t="n">
+        <v>10.70511554414379</v>
+      </c>
+      <c r="L11" t="n">
+        <v>9.238057639163047</v>
+      </c>
+      <c r="M11" t="n">
+        <v>7.370084963445959</v>
+      </c>
+      <c r="N11" t="n">
+        <v>6.328864353312303</v>
+      </c>
+      <c r="O11" t="n">
+        <v>4.994078168180024</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4.970414201183432</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4.441373864982235</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4.639684106614018</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4.044190175577037</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3.59257797078563</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.645607107601184</v>
+      </c>
+      <c r="V11" t="n">
+        <v>3.186856690419636</v>
+      </c>
+      <c r="W11" t="n">
+        <v>4.984177215189874</v>
+      </c>
+      <c r="X11" t="n">
+        <v>5.643251775848461</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>6.590370955011839</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B12" t="n">
+        <v>13.43990526939017</v>
+      </c>
+      <c r="C12" t="n">
+        <v>15.36941920189648</v>
+      </c>
+      <c r="D12" t="n">
+        <v>15.41650217133833</v>
+      </c>
+      <c r="E12" t="n">
+        <v>18.25192802056555</v>
+      </c>
+      <c r="F12" t="n">
+        <v>19.87369252022893</v>
+      </c>
+      <c r="G12" t="n">
+        <v>20.90406632451638</v>
+      </c>
+      <c r="H12" t="n">
+        <v>23.12697160883281</v>
+      </c>
+      <c r="I12" t="n">
+        <v>23.13919052319842</v>
+      </c>
+      <c r="J12" t="n">
+        <v>24.15153906866614</v>
+      </c>
+      <c r="K12" t="n">
+        <v>21.74600039502272</v>
+      </c>
+      <c r="L12" t="n">
+        <v>19.02881958152388</v>
+      </c>
+      <c r="M12" t="n">
+        <v>15.19462556806955</v>
+      </c>
+      <c r="N12" t="n">
+        <v>11.88880126182965</v>
+      </c>
+      <c r="O12" t="n">
+        <v>10.6987761547572</v>
+      </c>
+      <c r="P12" t="n">
+        <v>11.12426035502959</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>13.18594551914726</v>
+      </c>
+      <c r="R12" t="n">
+        <v>15.10365251727542</v>
+      </c>
+      <c r="S12" t="n">
+        <v>16.27539948707832</v>
+      </c>
+      <c r="T12" t="n">
+        <v>14.52822739834189</v>
+      </c>
+      <c r="U12" t="n">
+        <v>9.378084896347483</v>
+      </c>
+      <c r="V12" t="n">
+        <v>6.828978622327791</v>
+      </c>
+      <c r="W12" t="n">
+        <v>7.970727848101266</v>
+      </c>
+      <c r="X12" t="n">
+        <v>9.431728492501973</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>12.19415943172849</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11.92026840339451</v>
+      </c>
+      <c r="C13" t="n">
+        <v>13.55195574871592</v>
+      </c>
+      <c r="D13" t="n">
+        <v>16.38373470193446</v>
+      </c>
+      <c r="E13" t="n">
+        <v>15.34506624480917</v>
+      </c>
+      <c r="F13" t="n">
+        <v>16.61732780738109</v>
+      </c>
+      <c r="G13" t="n">
+        <v>15.39676273193841</v>
+      </c>
+      <c r="H13" t="n">
+        <v>13.91955835962145</v>
+      </c>
+      <c r="I13" t="n">
+        <v>13.38598223099704</v>
+      </c>
+      <c r="J13" t="n">
+        <v>12.15469613259669</v>
+      </c>
+      <c r="K13" t="n">
+        <v>12.87774047007703</v>
+      </c>
+      <c r="L13" t="n">
+        <v>11.4488748519542</v>
+      </c>
+      <c r="M13" t="n">
+        <v>9.405255878284924</v>
+      </c>
+      <c r="N13" t="n">
+        <v>7.669558359621451</v>
+      </c>
+      <c r="O13" t="n">
+        <v>8.626135017765495</v>
+      </c>
+      <c r="P13" t="n">
+        <v>9.053254437869823</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>11.21200157915515</v>
+      </c>
+      <c r="R13" t="n">
+        <v>13.93879565646594</v>
+      </c>
+      <c r="S13" t="n">
+        <v>16.45294929966463</v>
+      </c>
+      <c r="T13" t="n">
+        <v>17.72601658112909</v>
+      </c>
+      <c r="U13" t="n">
+        <v>16.76209279368213</v>
+      </c>
+      <c r="V13" t="n">
+        <v>7.917656373713381</v>
+      </c>
+      <c r="W13" t="n">
+        <v>7.733386075949367</v>
+      </c>
+      <c r="X13" t="n">
+        <v>9.786898184688241</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>10.71428571428571</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B14" t="n">
+        <v>10.45983816854154</v>
+      </c>
+      <c r="C14" t="n">
+        <v>11.10233109442908</v>
+      </c>
+      <c r="D14" t="n">
+        <v>10.42242400315831</v>
+      </c>
+      <c r="E14" t="n">
+        <v>9.254498714652957</v>
+      </c>
+      <c r="F14" t="n">
+        <v>8.131044010262483</v>
+      </c>
+      <c r="G14" t="n">
+        <v>7.046979865771812</v>
+      </c>
+      <c r="H14" t="n">
+        <v>5.993690851735016</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5.212240868706812</v>
+      </c>
+      <c r="J14" t="n">
+        <v>5.544593528018942</v>
+      </c>
+      <c r="K14" t="n">
+        <v>5.31305550069129</v>
+      </c>
+      <c r="L14" t="n">
+        <v>6.296881168574813</v>
+      </c>
+      <c r="M14" t="n">
+        <v>6.224066390041494</v>
+      </c>
+      <c r="N14" t="n">
+        <v>6.585173501577287</v>
+      </c>
+      <c r="O14" t="n">
+        <v>6.158705092775365</v>
+      </c>
+      <c r="P14" t="n">
+        <v>8.047337278106509</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>7.974733517568101</v>
+      </c>
+      <c r="R14" t="n">
+        <v>8.055281342546891</v>
+      </c>
+      <c r="S14" t="n">
+        <v>9.370684553166305</v>
+      </c>
+      <c r="T14" t="n">
+        <v>11.88314251875247</v>
+      </c>
+      <c r="U14" t="n">
+        <v>14.53109575518263</v>
+      </c>
+      <c r="V14" t="n">
+        <v>10.72842438638163</v>
+      </c>
+      <c r="W14" t="n">
+        <v>6.92246835443038</v>
+      </c>
+      <c r="X14" t="n">
+        <v>7.932123125493291</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>8.72138910812944</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B15" t="n">
+        <v>10.26248273139925</v>
+      </c>
+      <c r="C15" t="n">
+        <v>8.435401027261952</v>
+      </c>
+      <c r="D15" t="n">
+        <v>6.849585471772602</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5.655526992287918</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4.894414841128873</v>
+      </c>
+      <c r="G15" t="n">
+        <v>4.915120410580339</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.410883280757098</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.376110562685094</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.433307024467246</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3.673711238396208</v>
+      </c>
+      <c r="L15" t="n">
+        <v>4.915120410580339</v>
+      </c>
+      <c r="M15" t="n">
+        <v>6.856352499506026</v>
+      </c>
+      <c r="N15" t="n">
+        <v>6.979495268138801</v>
+      </c>
+      <c r="O15" t="n">
+        <v>7.757599684168969</v>
+      </c>
+      <c r="P15" t="n">
+        <v>7.08086785009862</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>7.441768653770233</v>
+      </c>
+      <c r="R15" t="n">
+        <v>6.396841066140178</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5.740777273623989</v>
+      </c>
+      <c r="T15" t="n">
+        <v>6.099486774575602</v>
+      </c>
+      <c r="U15" t="n">
+        <v>8.450148075024678</v>
+      </c>
+      <c r="V15" t="n">
+        <v>11.91607284243864</v>
+      </c>
+      <c r="W15" t="n">
+        <v>10.85838607594937</v>
+      </c>
+      <c r="X15" t="n">
+        <v>11.34569850039463</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>11.54301499605367</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B16" t="n">
+        <v>12.68995460824946</v>
+      </c>
+      <c r="C16" t="n">
+        <v>9.719478467009088</v>
+      </c>
+      <c r="D16" t="n">
+        <v>7.915515199368338</v>
+      </c>
+      <c r="E16" t="n">
+        <v>7.138619735020764</v>
+      </c>
+      <c r="F16" t="n">
+        <v>6.058811920268403</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5.230951440979076</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4.17981072555205</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3.968410661401777</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.67008681925809</v>
+      </c>
+      <c r="K16" t="n">
+        <v>4.424254394627691</v>
+      </c>
+      <c r="L16" t="n">
+        <v>5.369127516778524</v>
+      </c>
+      <c r="M16" t="n">
+        <v>8.199960482118158</v>
+      </c>
+      <c r="N16" t="n">
+        <v>11.27760252365931</v>
+      </c>
+      <c r="O16" t="n">
+        <v>11.46861429135413</v>
+      </c>
+      <c r="P16" t="n">
+        <v>10.92702169625247</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>9.67232530596131</v>
+      </c>
+      <c r="R16" t="n">
+        <v>6.989141164856861</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5.247583349773131</v>
+      </c>
+      <c r="T16" t="n">
+        <v>5.092775365179629</v>
+      </c>
+      <c r="U16" t="n">
+        <v>7.620927936821323</v>
+      </c>
+      <c r="V16" t="n">
+        <v>12.78701504354711</v>
+      </c>
+      <c r="W16" t="n">
+        <v>20.35205696202532</v>
+      </c>
+      <c r="X16" t="n">
+        <v>21.07340173638516</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>16.81136543014996</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B17" t="n">
+        <v>11.9794750345372</v>
+      </c>
+      <c r="C17" t="n">
+        <v>10.11457921770051</v>
+      </c>
+      <c r="D17" t="n">
+        <v>9.25779707856297</v>
+      </c>
+      <c r="E17" t="n">
+        <v>8.740359897172237</v>
+      </c>
+      <c r="F17" t="n">
+        <v>7.499506611407145</v>
+      </c>
+      <c r="G17" t="n">
+        <v>7.145677062771417</v>
+      </c>
+      <c r="H17" t="n">
+        <v>6.683753943217666</v>
+      </c>
+      <c r="I17" t="n">
+        <v>6.258637709772952</v>
+      </c>
+      <c r="J17" t="n">
+        <v>5.485398579321231</v>
+      </c>
+      <c r="K17" t="n">
+        <v>5.866087300019752</v>
+      </c>
+      <c r="L17" t="n">
+        <v>7.303592577970786</v>
+      </c>
+      <c r="M17" t="n">
+        <v>11.99367713890535</v>
+      </c>
+      <c r="N17" t="n">
+        <v>16.38406940063091</v>
+      </c>
+      <c r="O17" t="n">
+        <v>18.71298855112515</v>
+      </c>
+      <c r="P17" t="n">
+        <v>19.46745562130177</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>17.13383339913146</v>
+      </c>
+      <c r="R17" t="n">
+        <v>16.32773938795657</v>
+      </c>
+      <c r="S17" t="n">
+        <v>14.30262379167489</v>
+      </c>
+      <c r="T17" t="n">
+        <v>13.06750888274773</v>
+      </c>
+      <c r="U17" t="n">
+        <v>15.893385982231</v>
+      </c>
+      <c r="V17" t="n">
+        <v>22.98099762470309</v>
+      </c>
+      <c r="W17" t="n">
+        <v>21.83544303797468</v>
+      </c>
+      <c r="X17" t="n">
+        <v>17.58089976322021</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>14.60142067876875</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B18" t="n">
+        <v>4.776001578843498</v>
+      </c>
+      <c r="C18" t="n">
+        <v>5.570920584749111</v>
+      </c>
+      <c r="D18" t="n">
+        <v>4.994078168180024</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5.121613604904093</v>
+      </c>
+      <c r="F18" t="n">
+        <v>5.387803433984606</v>
+      </c>
+      <c r="G18" t="n">
+        <v>4.954599289380182</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4.534700315457413</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4.481737413622902</v>
+      </c>
+      <c r="J18" t="n">
+        <v>4.419889502762431</v>
+      </c>
+      <c r="K18" t="n">
+        <v>5.016788465336757</v>
+      </c>
+      <c r="L18" t="n">
+        <v>6.217923410975128</v>
+      </c>
+      <c r="M18" t="n">
+        <v>7.409602845287493</v>
+      </c>
+      <c r="N18" t="n">
+        <v>10.21293375394322</v>
+      </c>
+      <c r="O18" t="n">
+        <v>11.98183971575207</v>
+      </c>
+      <c r="P18" t="n">
+        <v>11.43984220907298</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>10.63955783655744</v>
+      </c>
+      <c r="R18" t="n">
+        <v>11.09575518262586</v>
+      </c>
+      <c r="S18" t="n">
+        <v>11.67883211678832</v>
+      </c>
+      <c r="T18" t="n">
+        <v>11.13304382155547</v>
+      </c>
+      <c r="U18" t="n">
+        <v>9.832181638696939</v>
+      </c>
+      <c r="V18" t="n">
+        <v>9.164687252573238</v>
+      </c>
+      <c r="W18" t="n">
+        <v>5.122626582278481</v>
+      </c>
+      <c r="X18" t="n">
+        <v>3.887134964483031</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>3.887134964483031</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.203868166567989</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2.034768866060845</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2.151598894591394</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.839035000988728</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2.091967633708309</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.796288985392815</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.050473186119874</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1.954590325765054</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.953433307024467</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.07386924748173</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2.408211606790367</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2.963841138114997</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2.622239747634069</v>
+      </c>
+      <c r="O19" t="n">
+        <v>2.526648243189893</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.287968441814596</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.921437031188314</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2.744323790720632</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2.465969619254291</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.724042637189104</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.309970384995064</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.9303246239113222</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.870253164556962</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.4538279400157853</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.9471191791633781</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.4341819617130452</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.6124061635717107</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.6711409395973155</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.8503065058334981</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.8288928359976317</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.7698381365969207</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.9463722397476341</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.631786771964462</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.8287292817679558</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.7307920205411811</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.927753651796289</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.146018573404465</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.8675078864353313</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.8882747729964469</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.9072978303747534</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.184366363995263</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.322803553800592</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.203393174196094</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.51993683379392</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.382033563672261</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.5938242280285035</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.4153481012658228</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.3157063930544594</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.3749013417521705</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.2762976119992106</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4741209008297116</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.5527043031977892</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.553687957286929</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.3749753305703572</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.4145282273983419</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.5717665615141956</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.6910167818361304</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.5327545382794001</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.612285206399368</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.5921831819976313</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.5532503457814661</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.611198738170347</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.6119226213975523</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.06508875739645</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.065929727595736</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.382033563672261</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.91359242454133</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.796288985392815</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.9871668311944719</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.613618368962787</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.2175632911392405</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.138121546961326</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.2170481452249408</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.1973554371422933</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.3160806005531411</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.2960915909988157</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.2966185485465691</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.3355042431418986</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.3158310303987367</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.2957413249211356</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.6712734452122409</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.5327545382794001</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.3357693067351373</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.6908803789972365</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.6915629322268326</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.6703470031545742</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.5724437425977102</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.045364891518738</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.579155151993683</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.461006910167818</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.3217597159203</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.164626924595342</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.769990128331688</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.4354711005542359</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.2966772151898734</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.3946329913180742</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.1973164956590371</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.2565620682849812</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.2568154879494271</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.3158310303987367</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.2570694087403599</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.4736530491415039</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.454007106198184</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.473186119873817</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.4738400789733465</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.2959747434885556</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.2962670353545329</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.5329648637978681</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.5334914048606995</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.5323343848580442</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.493485984998026</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.5719921104536489</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.5921831819976313</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.6712734452122409</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.7693825212073387</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.6908803789972365</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.5528134254689042</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.3562945368171022</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.1186708860759494</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0.2762430939226519</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.1973164956590371</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.2170909808565226</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.2370604504148558</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.3947887879984208</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.3559422582558829</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.2762976119992106</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.3947887879984208</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.5520504731861199</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.4343534057255676</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.5722178374112076</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.4740272565672526</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.6514015001973944</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.4544556411776329</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.4337539432176656</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.6514015001973944</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.4142011834319527</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.3553099091985787</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.5133267522211253</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.5326494377589268</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.5329648637978681</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.315893385982231</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.4156769596199525</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.2571202531645569</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.2170481452249408</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.2565114443567482</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.4736530491415039</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.3555906756222837</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.5527043031977892</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.5932370970931382</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.7104795737122558</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.5527043031977892</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.7689274447949527</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.6515301085883515</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.7892659826361483</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.928303377444203</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.927753651796289</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.8496344595929658</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.887223974763407</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.8487958941966048</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.591715976331361</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.8093170153967627</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.5330700888450148</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.4537384099427895</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.4145282273983419</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.2764067127344521</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.613618368962787</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.4153481012658228</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.3354380426203631</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.3749013417521705</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.3947108742845866</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.3358356380877124</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.3158310303987367</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.4350405378683014</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.5131241365699625</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.5527043031977892</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.6703470031545742</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.5528134254689042</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.611681136543015</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.8097965633023899</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.8290564547966838</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.8496344595929658</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.7689274447949527</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.8487958941966048</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.5128205128205128</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.6711409395973155</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.4146100691016782</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.4734661668968238</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.473746545598105</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.4146100691016782</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.4354711005542359</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.2966772151898734</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.2762430939226519</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.1775848460931334</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Y26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>nombre_viento</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.3947108742845866</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5136309758988542</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.454007106198184</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5339133873838244</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.4736530491415039</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.6908803789972365</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.6506309148264984</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.6515301085883515</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.9076558800315706</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.928303377444203</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.7895775759968416</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.066982809721399</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.8675078864353313</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.105408606395578</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.06508875739645</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.6711409395973155</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.8489634748272458</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.6904714933912014</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.7106198183971575</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.5923000987166831</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.4552652414885194</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.3362341772151899</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.3946329913180742</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.4340962904498816</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.223603710282218</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.165547214539708</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.263324121594947</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.680838441763892</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.736727846852181</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.717331227793131</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.873028391167192</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.934846989141165</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.150749802683504</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.567647639739285</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.901697591788393</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3.220707370084964</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.898264984227129</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2.191077773391236</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.031558185404339</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.835767864192657</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.638696939782823</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.519037285460643</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.184366363995263</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.125370187561698</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.068883610451306</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1.028481012658228</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1.243093922651934</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1.045777426992897</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.144661535425301</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.007506914263137</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.480457954994078</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.740162151473206</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.598579040852576</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.210817212791157</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.168769716088328</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.290227048371175</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.012628255722178</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.626901046810191</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.178049743387288</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2.963841138114997</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.48422712933754</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.973943939992104</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.55818540433925</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.440979076194236</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.500493583415597</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.006115604655751</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.927753651796289</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.026653504442251</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.9105304829770388</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.9493670886075949</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.7300710339384373</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1.104972375690608</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.203868166567989</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.758198340576847</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.717331227793131</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.918133280601147</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.210380895993685</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.033162258191867</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.48422712933754</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.8035538005923</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.058405682715075</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.903416946474422</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.276746940386893</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2.548903378778897</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.385646687697161</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.421239636794315</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.676528599605523</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.243584682195026</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.006910167818361</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.9863878477017163</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.8093170153967627</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.8292201382033564</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.009501187648456</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.166930379746835</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.9076558800315706</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1.262825572217837</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.420959147424512</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.560647965231134</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.191077773391236</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.175202689341507</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.34852970199329</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3.059613106987761</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.194006309148265</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.941757156959526</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.492501973164956</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.863914675093818</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.763521515988946</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2.430349733254297</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.715299684542587</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.440979076194236</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.124260355029586</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.065929727595736</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.947680157946693</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.025843361609785</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.065929727595736</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.947680157946693</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.02929532858274</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.325158227848101</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1.164167324388319</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1.539068666140489</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.401223603710282</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.777953378111419</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.388472167390446</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.432272098081867</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.861653838563253</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.546387682589815</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.523659305993691</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.237907206317868</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.176795580110497</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.160181710448351</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.329253849190683</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.798063623789765</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.182965299684543</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.9869719699960521</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.9270216962524654</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.8882747729964469</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.7305034550839091</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.6115604655750642</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.6514015001973944</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.769990128331688</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.247030878859857</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.443829113924051</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1.499605367008682</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1.322020520915548</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.993289915137162</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.679178190438562</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.934465061192262</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2.313624678663239</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.309058614564831</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.684563758389262</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.661671924290221</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.685093780848963</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.295185477505919</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.765158996642307</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.09238057639163</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.462161628136732</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.123817034700315</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.9672325305961311</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.5719921104536489</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.5724437425977102</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.3948667324777888</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.5326494377589268</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.5329648637978681</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.7305034550839091</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.405384006334125</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.285601265822785</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1.637726913970008</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1.578531965272297</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.835405565423327</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.758198340576847</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.816028424792736</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.135653549535298</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2.269587527136373</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.388472167390446</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.602523659305993</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.843040473840079</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.584846093133386</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.607149911119889</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.934465061192262</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.146018573404465</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.143533123028391</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.7106198183971575</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.8086785009861933</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.6908803789972365</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.5725567620927937</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.3945551390806865</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.8685353335965259</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.7107601184600197</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.207442596991291</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.700949367088608</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1.440410418310971</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1.499605367008682</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2.506414051707125</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.311339391544844</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2.013422818791947</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.412497528178762</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2.328794158279061</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.980655349388077</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.450315457413249</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.277393879565647</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.255722178374112</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.69346237408651</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.355704697986577</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2.667457024303497</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.478706624605678</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.362021318594552</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.7297830374753451</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.7106198183971575</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.769990128331688</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.9863878477017163</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.8093170153967627</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.145113524185587</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.761678543151227</v>
+      </c>
+      <c r="W10" t="n">
+        <v>2.096518987341772</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1.894238358326756</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>2.407261247040252</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B11" t="n">
+        <v>7.894217485691731</v>
+      </c>
+      <c r="C11" t="n">
+        <v>7.981035163966811</v>
+      </c>
+      <c r="D11" t="n">
+        <v>8.251085669166995</v>
+      </c>
+      <c r="E11" t="n">
+        <v>7.969151670951157</v>
+      </c>
+      <c r="F11" t="n">
+        <v>7.795539767120585</v>
+      </c>
+      <c r="G11" t="n">
+        <v>8.843268851164627</v>
+      </c>
+      <c r="H11" t="n">
+        <v>10.21293375394322</v>
+      </c>
+      <c r="I11" t="n">
+        <v>11.45113524185587</v>
+      </c>
+      <c r="J11" t="n">
+        <v>11.08918705603788</v>
+      </c>
+      <c r="K11" t="n">
+        <v>10.70511554414379</v>
+      </c>
+      <c r="L11" t="n">
+        <v>9.238057639163047</v>
+      </c>
+      <c r="M11" t="n">
+        <v>7.370084963445959</v>
+      </c>
+      <c r="N11" t="n">
+        <v>6.328864353312303</v>
+      </c>
+      <c r="O11" t="n">
+        <v>4.994078168180024</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4.970414201183432</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4.441373864982235</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4.639684106614018</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4.044190175577037</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3.59257797078563</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.645607107601184</v>
+      </c>
+      <c r="V11" t="n">
+        <v>3.186856690419636</v>
+      </c>
+      <c r="W11" t="n">
+        <v>4.984177215189874</v>
+      </c>
+      <c r="X11" t="n">
+        <v>5.643251775848461</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>6.590370955011839</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B12" t="n">
+        <v>13.43990526939017</v>
+      </c>
+      <c r="C12" t="n">
+        <v>15.36941920189648</v>
+      </c>
+      <c r="D12" t="n">
+        <v>15.41650217133833</v>
+      </c>
+      <c r="E12" t="n">
+        <v>18.25192802056555</v>
+      </c>
+      <c r="F12" t="n">
+        <v>19.87369252022893</v>
+      </c>
+      <c r="G12" t="n">
+        <v>20.90406632451638</v>
+      </c>
+      <c r="H12" t="n">
+        <v>23.12697160883281</v>
+      </c>
+      <c r="I12" t="n">
+        <v>23.13919052319842</v>
+      </c>
+      <c r="J12" t="n">
+        <v>24.15153906866614</v>
+      </c>
+      <c r="K12" t="n">
+        <v>21.74600039502272</v>
+      </c>
+      <c r="L12" t="n">
+        <v>19.02881958152388</v>
+      </c>
+      <c r="M12" t="n">
+        <v>15.19462556806955</v>
+      </c>
+      <c r="N12" t="n">
+        <v>11.88880126182965</v>
+      </c>
+      <c r="O12" t="n">
+        <v>10.6987761547572</v>
+      </c>
+      <c r="P12" t="n">
+        <v>11.12426035502959</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>13.18594551914726</v>
+      </c>
+      <c r="R12" t="n">
+        <v>15.10365251727542</v>
+      </c>
+      <c r="S12" t="n">
+        <v>16.27539948707832</v>
+      </c>
+      <c r="T12" t="n">
+        <v>14.52822739834189</v>
+      </c>
+      <c r="U12" t="n">
+        <v>9.378084896347483</v>
+      </c>
+      <c r="V12" t="n">
+        <v>6.828978622327791</v>
+      </c>
+      <c r="W12" t="n">
+        <v>7.970727848101266</v>
+      </c>
+      <c r="X12" t="n">
+        <v>9.431728492501973</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>12.19415943172849</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11.92026840339451</v>
+      </c>
+      <c r="C13" t="n">
+        <v>13.55195574871592</v>
+      </c>
+      <c r="D13" t="n">
+        <v>16.38373470193446</v>
+      </c>
+      <c r="E13" t="n">
+        <v>15.34506624480917</v>
+      </c>
+      <c r="F13" t="n">
+        <v>16.61732780738109</v>
+      </c>
+      <c r="G13" t="n">
+        <v>15.39676273193841</v>
+      </c>
+      <c r="H13" t="n">
+        <v>13.91955835962145</v>
+      </c>
+      <c r="I13" t="n">
+        <v>13.38598223099704</v>
+      </c>
+      <c r="J13" t="n">
+        <v>12.15469613259669</v>
+      </c>
+      <c r="K13" t="n">
+        <v>12.87774047007703</v>
+      </c>
+      <c r="L13" t="n">
+        <v>11.4488748519542</v>
+      </c>
+      <c r="M13" t="n">
+        <v>9.405255878284924</v>
+      </c>
+      <c r="N13" t="n">
+        <v>7.669558359621451</v>
+      </c>
+      <c r="O13" t="n">
+        <v>8.626135017765495</v>
+      </c>
+      <c r="P13" t="n">
+        <v>9.053254437869823</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>11.21200157915515</v>
+      </c>
+      <c r="R13" t="n">
+        <v>13.93879565646594</v>
+      </c>
+      <c r="S13" t="n">
+        <v>16.45294929966463</v>
+      </c>
+      <c r="T13" t="n">
+        <v>17.72601658112909</v>
+      </c>
+      <c r="U13" t="n">
+        <v>16.76209279368213</v>
+      </c>
+      <c r="V13" t="n">
+        <v>7.917656373713381</v>
+      </c>
+      <c r="W13" t="n">
+        <v>7.733386075949367</v>
+      </c>
+      <c r="X13" t="n">
+        <v>9.786898184688241</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>10.71428571428571</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B14" t="n">
+        <v>10.45983816854154</v>
+      </c>
+      <c r="C14" t="n">
+        <v>11.10233109442908</v>
+      </c>
+      <c r="D14" t="n">
+        <v>10.42242400315831</v>
+      </c>
+      <c r="E14" t="n">
+        <v>9.254498714652957</v>
+      </c>
+      <c r="F14" t="n">
+        <v>8.131044010262483</v>
+      </c>
+      <c r="G14" t="n">
+        <v>7.046979865771812</v>
+      </c>
+      <c r="H14" t="n">
+        <v>5.993690851735016</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5.212240868706812</v>
+      </c>
+      <c r="J14" t="n">
+        <v>5.544593528018942</v>
+      </c>
+      <c r="K14" t="n">
+        <v>5.31305550069129</v>
+      </c>
+      <c r="L14" t="n">
+        <v>6.296881168574813</v>
+      </c>
+      <c r="M14" t="n">
+        <v>6.224066390041494</v>
+      </c>
+      <c r="N14" t="n">
+        <v>6.585173501577287</v>
+      </c>
+      <c r="O14" t="n">
+        <v>6.158705092775365</v>
+      </c>
+      <c r="P14" t="n">
+        <v>8.047337278106509</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>7.974733517568101</v>
+      </c>
+      <c r="R14" t="n">
+        <v>8.055281342546891</v>
+      </c>
+      <c r="S14" t="n">
+        <v>9.370684553166305</v>
+      </c>
+      <c r="T14" t="n">
+        <v>11.88314251875247</v>
+      </c>
+      <c r="U14" t="n">
+        <v>14.53109575518263</v>
+      </c>
+      <c r="V14" t="n">
+        <v>10.72842438638163</v>
+      </c>
+      <c r="W14" t="n">
+        <v>6.92246835443038</v>
+      </c>
+      <c r="X14" t="n">
+        <v>7.932123125493291</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>8.72138910812944</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B15" t="n">
+        <v>10.26248273139925</v>
+      </c>
+      <c r="C15" t="n">
+        <v>8.435401027261952</v>
+      </c>
+      <c r="D15" t="n">
+        <v>6.849585471772602</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5.655526992287918</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4.894414841128873</v>
+      </c>
+      <c r="G15" t="n">
+        <v>4.915120410580339</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.410883280757098</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.376110562685094</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.433307024467246</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3.673711238396208</v>
+      </c>
+      <c r="L15" t="n">
+        <v>4.915120410580339</v>
+      </c>
+      <c r="M15" t="n">
+        <v>6.856352499506026</v>
+      </c>
+      <c r="N15" t="n">
+        <v>6.979495268138801</v>
+      </c>
+      <c r="O15" t="n">
+        <v>7.757599684168969</v>
+      </c>
+      <c r="P15" t="n">
+        <v>7.08086785009862</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>7.441768653770233</v>
+      </c>
+      <c r="R15" t="n">
+        <v>6.396841066140178</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5.740777273623989</v>
+      </c>
+      <c r="T15" t="n">
+        <v>6.099486774575602</v>
+      </c>
+      <c r="U15" t="n">
+        <v>8.450148075024678</v>
+      </c>
+      <c r="V15" t="n">
+        <v>11.91607284243864</v>
+      </c>
+      <c r="W15" t="n">
+        <v>10.85838607594937</v>
+      </c>
+      <c r="X15" t="n">
+        <v>11.34569850039463</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>11.54301499605367</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B16" t="n">
+        <v>12.68995460824946</v>
+      </c>
+      <c r="C16" t="n">
+        <v>9.719478467009088</v>
+      </c>
+      <c r="D16" t="n">
+        <v>7.915515199368338</v>
+      </c>
+      <c r="E16" t="n">
+        <v>7.138619735020764</v>
+      </c>
+      <c r="F16" t="n">
+        <v>6.058811920268403</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5.230951440979076</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4.17981072555205</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3.968410661401777</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.67008681925809</v>
+      </c>
+      <c r="K16" t="n">
+        <v>4.424254394627691</v>
+      </c>
+      <c r="L16" t="n">
+        <v>5.369127516778524</v>
+      </c>
+      <c r="M16" t="n">
+        <v>8.199960482118158</v>
+      </c>
+      <c r="N16" t="n">
+        <v>11.27760252365931</v>
+      </c>
+      <c r="O16" t="n">
+        <v>11.46861429135413</v>
+      </c>
+      <c r="P16" t="n">
+        <v>10.92702169625247</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>9.67232530596131</v>
+      </c>
+      <c r="R16" t="n">
+        <v>6.989141164856861</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5.247583349773131</v>
+      </c>
+      <c r="T16" t="n">
+        <v>5.092775365179629</v>
+      </c>
+      <c r="U16" t="n">
+        <v>7.620927936821323</v>
+      </c>
+      <c r="V16" t="n">
+        <v>12.78701504354711</v>
+      </c>
+      <c r="W16" t="n">
+        <v>20.35205696202532</v>
+      </c>
+      <c r="X16" t="n">
+        <v>21.07340173638516</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>16.81136543014996</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B17" t="n">
+        <v>11.9794750345372</v>
+      </c>
+      <c r="C17" t="n">
+        <v>10.11457921770051</v>
+      </c>
+      <c r="D17" t="n">
+        <v>9.25779707856297</v>
+      </c>
+      <c r="E17" t="n">
+        <v>8.740359897172237</v>
+      </c>
+      <c r="F17" t="n">
+        <v>7.499506611407145</v>
+      </c>
+      <c r="G17" t="n">
+        <v>7.145677062771417</v>
+      </c>
+      <c r="H17" t="n">
+        <v>6.683753943217666</v>
+      </c>
+      <c r="I17" t="n">
+        <v>6.258637709772952</v>
+      </c>
+      <c r="J17" t="n">
+        <v>5.485398579321231</v>
+      </c>
+      <c r="K17" t="n">
+        <v>5.866087300019752</v>
+      </c>
+      <c r="L17" t="n">
+        <v>7.303592577970786</v>
+      </c>
+      <c r="M17" t="n">
+        <v>11.99367713890535</v>
+      </c>
+      <c r="N17" t="n">
+        <v>16.38406940063091</v>
+      </c>
+      <c r="O17" t="n">
+        <v>18.71298855112515</v>
+      </c>
+      <c r="P17" t="n">
+        <v>19.46745562130177</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>17.13383339913146</v>
+      </c>
+      <c r="R17" t="n">
+        <v>16.32773938795657</v>
+      </c>
+      <c r="S17" t="n">
+        <v>14.30262379167489</v>
+      </c>
+      <c r="T17" t="n">
+        <v>13.06750888274773</v>
+      </c>
+      <c r="U17" t="n">
+        <v>15.893385982231</v>
+      </c>
+      <c r="V17" t="n">
+        <v>22.98099762470309</v>
+      </c>
+      <c r="W17" t="n">
+        <v>21.83544303797468</v>
+      </c>
+      <c r="X17" t="n">
+        <v>17.58089976322021</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>14.60142067876875</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B18" t="n">
+        <v>4.776001578843498</v>
+      </c>
+      <c r="C18" t="n">
+        <v>5.570920584749111</v>
+      </c>
+      <c r="D18" t="n">
+        <v>4.994078168180024</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5.121613604904093</v>
+      </c>
+      <c r="F18" t="n">
+        <v>5.387803433984606</v>
+      </c>
+      <c r="G18" t="n">
+        <v>4.954599289380182</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4.534700315457413</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4.481737413622902</v>
+      </c>
+      <c r="J18" t="n">
+        <v>4.419889502762431</v>
+      </c>
+      <c r="K18" t="n">
+        <v>5.016788465336757</v>
+      </c>
+      <c r="L18" t="n">
+        <v>6.217923410975128</v>
+      </c>
+      <c r="M18" t="n">
+        <v>7.409602845287493</v>
+      </c>
+      <c r="N18" t="n">
+        <v>10.21293375394322</v>
+      </c>
+      <c r="O18" t="n">
+        <v>11.98183971575207</v>
+      </c>
+      <c r="P18" t="n">
+        <v>11.43984220907298</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>10.63955783655744</v>
+      </c>
+      <c r="R18" t="n">
+        <v>11.09575518262586</v>
+      </c>
+      <c r="S18" t="n">
+        <v>11.67883211678832</v>
+      </c>
+      <c r="T18" t="n">
+        <v>11.13304382155547</v>
+      </c>
+      <c r="U18" t="n">
+        <v>9.832181638696939</v>
+      </c>
+      <c r="V18" t="n">
+        <v>9.164687252573238</v>
+      </c>
+      <c r="W18" t="n">
+        <v>5.122626582278481</v>
+      </c>
+      <c r="X18" t="n">
+        <v>3.887134964483031</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>3.887134964483031</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.203868166567989</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2.034768866060845</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2.151598894591394</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.839035000988728</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2.091967633708309</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.796288985392815</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.050473186119874</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1.954590325765054</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.953433307024467</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.07386924748173</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2.408211606790367</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2.963841138114997</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2.622239747634069</v>
+      </c>
+      <c r="O19" t="n">
+        <v>2.526648243189893</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.287968441814596</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.921437031188314</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2.744323790720632</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2.465969619254291</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.724042637189104</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.309970384995064</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.9303246239113222</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.870253164556962</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.4538279400157853</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.9471191791633781</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.4341819617130452</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.6124061635717107</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.6711409395973155</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.8503065058334981</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.8288928359976317</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.7698381365969207</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.9463722397476341</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.631786771964462</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.8287292817679558</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.7307920205411811</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.927753651796289</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.146018573404465</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.8675078864353313</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.8882747729964469</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.9072978303747534</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.184366363995263</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.322803553800592</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.203393174196094</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.51993683379392</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.382033563672261</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.5938242280285035</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.4153481012658228</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.3157063930544594</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.3749013417521705</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.2762976119992106</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4741209008297116</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.5527043031977892</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.553687957286929</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.3749753305703572</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.4145282273983419</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.5717665615141956</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.6910167818361304</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.5327545382794001</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.612285206399368</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.5921831819976313</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.5532503457814661</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.611198738170347</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.6119226213975523</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.06508875739645</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.065929727595736</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.382033563672261</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.91359242454133</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.796288985392815</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.9871668311944719</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.613618368962787</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.2175632911392405</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.138121546961326</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.2170481452249408</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.1973554371422933</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.3160806005531411</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.2960915909988157</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.2966185485465691</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.3355042431418986</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.3158310303987367</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.2957413249211356</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.6712734452122409</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.5327545382794001</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.3357693067351373</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.6908803789972365</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.6915629322268326</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.6703470031545742</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.5724437425977102</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.045364891518738</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.579155151993683</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.461006910167818</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.3217597159203</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.164626924595342</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.769990128331688</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.4354711005542359</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.2966772151898734</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.3946329913180742</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.1973164956590371</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.2565620682849812</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.2568154879494271</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.3158310303987367</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.2570694087403599</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.4736530491415039</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.454007106198184</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.473186119873817</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.4738400789733465</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.2959747434885556</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.2962670353545329</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.5329648637978681</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.5334914048606995</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.5323343848580442</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.493485984998026</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.5719921104536489</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.5921831819976313</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.6712734452122409</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.7693825212073387</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.6908803789972365</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.5528134254689042</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.3562945368171022</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.1186708860759494</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0.2762430939226519</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.1973164956590371</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.2170909808565226</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.2370604504148558</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.3947887879984208</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.3559422582558829</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.2762976119992106</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.3947887879984208</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.5520504731861199</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.4343534057255676</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.5722178374112076</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.4740272565672526</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.6514015001973944</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.4544556411776329</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.4337539432176656</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.6514015001973944</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.4142011834319527</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.3553099091985787</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.5133267522211253</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.5326494377589268</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.5329648637978681</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.315893385982231</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.4156769596199525</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.2571202531645569</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.2170481452249408</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.2565114443567482</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.4736530491415039</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.3555906756222837</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.5527043031977892</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.5932370970931382</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.7104795737122558</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.5527043031977892</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.7689274447949527</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.6515301085883515</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.7892659826361483</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.928303377444203</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.927753651796289</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.8496344595929658</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.887223974763407</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.8487958941966048</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.591715976331361</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.8093170153967627</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.5330700888450148</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.4537384099427895</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.4145282273983419</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.2764067127344521</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.613618368962787</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.4153481012658228</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.3354380426203631</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.3749013417521705</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.3947108742845866</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.3358356380877124</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.3158310303987367</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.4350405378683014</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.5131241365699625</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.5527043031977892</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.6703470031545742</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.5528134254689042</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.611681136543015</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.8097965633023899</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.8290564547966838</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.8496344595929658</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.7689274447949527</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.8487958941966048</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.5128205128205128</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.6711409395973155</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.4146100691016782</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.4734661668968238</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.473746545598105</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.4146100691016782</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.4354711005542359</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.2966772151898734</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.2762430939226519</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.1775848460931334</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>